--- a/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Perceptual/Tadpole_ET_summary_Perceptual_500ms_NoLabels_2.0-2.5.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Perceptual/Tadpole_ET_summary_Perceptual_500ms_NoLabels_2.0-2.5.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -354,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO101"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11239,7 +11240,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -11266,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
@@ -11314,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA88" s="1">
         <v>0</v>
@@ -11329,13 +11330,13 @@
         <v>0</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF88" s="1">
         <v>0</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AH88" s="1">
         <v>0</v>
@@ -11364,7 +11365,7 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -11400,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N89" s="1">
         <v>0</v>
@@ -11439,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="1">
         <v>0</v>
@@ -11454,13 +11455,13 @@
         <v>0</v>
       </c>
       <c r="AE89" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF89" s="1">
         <v>0</v>
       </c>
       <c r="AG89" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AH89" s="1">
         <v>0</v>
@@ -11489,7 +11490,7 @@
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -11501,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -11525,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="N90" s="1">
         <v>0</v>
@@ -11594,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AK90" s="1">
         <v>0</v>
@@ -11614,7 +11615,7 @@
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -11626,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -11650,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="1">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N91" s="1">
         <v>0</v>
@@ -11719,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AK91" s="1">
         <v>0</v>
@@ -11739,7 +11740,7 @@
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -11757,61 +11758,61 @@
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M92" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="N92" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O92" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q92" s="1">
         <v>0</v>
       </c>
       <c r="R92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S92" s="1">
         <v>0</v>
       </c>
       <c r="T92" s="1">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="U92" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="V92" s="1">
         <v>0</v>
       </c>
       <c r="W92" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="X92" s="1">
         <v>0</v>
       </c>
       <c r="Y92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z92" s="1">
         <v>0</v>
@@ -11826,37 +11827,37 @@
         <v>0</v>
       </c>
       <c r="AD92" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AE92" s="1">
         <v>0</v>
       </c>
       <c r="AF92" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AG92" s="1">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AH92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI92" s="1">
         <v>0</v>
       </c>
       <c r="AJ92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK92" s="1">
         <v>0</v>
       </c>
       <c r="AL92" s="1">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AM92" s="1">
         <v>0</v>
       </c>
       <c r="AN92" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO92" s="1">
         <v>0</v>
@@ -11864,10 +11865,10 @@
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -11882,16 +11883,16 @@
         <v>0</v>
       </c>
       <c r="G93" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H93" s="1">
         <v>0.4</v>
       </c>
-      <c r="H93" s="1">
-        <v>0.5</v>
-      </c>
       <c r="I93" s="1">
         <v>0</v>
       </c>
       <c r="J93" s="1">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="K93" s="1">
         <v>0</v>
@@ -11903,96 +11904,96 @@
         <v>0</v>
       </c>
       <c r="N93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W93" s="1">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AJ93" s="1">
         <v>0.1</v>
       </c>
-      <c r="O93" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S93" s="1">
-        <v>0</v>
-      </c>
-      <c r="T93" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="U93" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="V93" s="1">
-        <v>0</v>
-      </c>
-      <c r="W93" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="X93" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD93" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AE93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF93" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AG93" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="AH93" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI93" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ93" s="1">
-        <v>0.5</v>
-      </c>
       <c r="AK93" s="1">
         <v>0</v>
       </c>
       <c r="AL93" s="1">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AM93" s="1">
         <v>0</v>
       </c>
       <c r="AN93" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B94" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -12001,115 +12002,115 @@
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0</v>
+      </c>
+      <c r="U94" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="W94" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="X94" s="1">
         <v>0.4</v>
       </c>
-      <c r="I94" s="1">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K94" s="1">
-        <v>0</v>
-      </c>
-      <c r="L94" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0</v>
-      </c>
-      <c r="N94" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O94" s="1">
-        <v>0</v>
-      </c>
-      <c r="P94" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="R94" s="1">
-        <v>0</v>
-      </c>
-      <c r="S94" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="T94" s="1">
-        <v>0</v>
-      </c>
-      <c r="U94" s="1">
-        <v>0</v>
-      </c>
-      <c r="V94" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W94" s="1">
-        <v>0</v>
-      </c>
-      <c r="X94" s="1">
-        <v>0.11</v>
-      </c>
       <c r="Y94" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z94" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AI94" s="1">
         <v>0.16</v>
       </c>
-      <c r="AA94" s="1">
+      <c r="AJ94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="1">
         <v>0.13</v>
-      </c>
-      <c r="AB94" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="AC94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AE94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="AJ94" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AK94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO94" s="1">
-        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.25">
@@ -12120,22 +12121,22 @@
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E95" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -12147,64 +12148,64 @@
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M95" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N95" s="1">
         <v>0</v>
       </c>
       <c r="O95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1">
         <v>0.04</v>
       </c>
-      <c r="P95" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="R95" s="1">
-        <v>0</v>
-      </c>
       <c r="S95" s="1">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U95" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W95" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X95" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y95" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z95" s="1">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AA95" s="1">
         <v>0</v>
       </c>
       <c r="AB95" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AC95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD95" s="1">
         <v>0</v>
       </c>
       <c r="AE95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF95" s="1">
         <v>0.5</v>
@@ -12213,13 +12214,13 @@
         <v>0</v>
       </c>
       <c r="AH95" s="1">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="AI95" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK95" s="1">
         <v>0</v>
@@ -12228,24 +12229,24 @@
         <v>0</v>
       </c>
       <c r="AM95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO95" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>0.5</v>
@@ -12254,34 +12255,34 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
       </c>
       <c r="J96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L96" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="M96" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="N96" s="1">
         <v>0</v>
       </c>
       <c r="O96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P96" s="1">
         <v>0.5</v>
@@ -12290,55 +12291,55 @@
         <v>0</v>
       </c>
       <c r="R96" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S96" s="1">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="T96" s="1">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="U96" s="1">
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
       </c>
       <c r="X96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="1">
         <v>0</v>
       </c>
       <c r="Z96" s="1">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="1">
         <v>0</v>
       </c>
       <c r="AB96" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD96" s="1">
         <v>0</v>
       </c>
       <c r="AE96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF96" s="1">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AG96" s="1">
         <v>0</v>
       </c>
       <c r="AH96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI96" s="1">
         <v>0</v>
@@ -12350,13 +12351,13 @@
         <v>0</v>
       </c>
       <c r="AL96" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM96" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN96" s="1">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="AO96" s="1">
         <v>0</v>
@@ -12364,135 +12365,135 @@
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
       </c>
       <c r="F97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="U97" s="1">
+        <v>0</v>
+      </c>
+      <c r="V97" s="1">
+        <v>0</v>
+      </c>
+      <c r="W97" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="X97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH97" s="1">
         <v>0.17</v>
       </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>0</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="N97" s="1">
-        <v>0</v>
-      </c>
-      <c r="O97" s="1">
-        <v>0</v>
-      </c>
-      <c r="P97" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1">
-        <v>0</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="U97" s="1">
-        <v>0</v>
-      </c>
-      <c r="V97" s="1">
-        <v>0</v>
-      </c>
-      <c r="W97" s="1">
-        <v>0</v>
-      </c>
-      <c r="X97" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="AG97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="1">
-        <v>0</v>
-      </c>
       <c r="AI97" s="1">
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AK97" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AL97" s="1">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
       </c>
       <c r="AN97" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO97" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -12504,28 +12505,28 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
       </c>
       <c r="J98" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
         <v>0</v>
       </c>
       <c r="L98" s="1">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="M98" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N98" s="1">
         <v>0</v>
@@ -12534,19 +12535,19 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Q98" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
       </c>
       <c r="S98" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T98" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U98" s="1">
         <v>0</v>
@@ -12555,52 +12556,52 @@
         <v>0</v>
       </c>
       <c r="W98" s="1">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="X98" s="1">
         <v>0</v>
       </c>
       <c r="Y98" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z98" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA98" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB98" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AC98" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AE98" s="1">
         <v>0.33</v>
       </c>
-      <c r="AD98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="1">
-        <v>0</v>
-      </c>
       <c r="AF98" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG98" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH98" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AI98" s="1">
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="AK98" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AL98" s="1">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -12609,24 +12610,24 @@
         <v>0</v>
       </c>
       <c r="AO98" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -12653,40 +12654,40 @@
         <v>0</v>
       </c>
       <c r="N99" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O99" s="1">
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q99" s="1">
         <v>0</v>
       </c>
       <c r="R99" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S99" s="1">
         <v>0</v>
       </c>
       <c r="T99" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U99" s="1">
         <v>0</v>
       </c>
       <c r="V99" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W99" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X99" s="1">
         <v>0</v>
       </c>
       <c r="Y99" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z99" s="1">
         <v>0</v>
@@ -12695,297 +12696,706 @@
         <v>0</v>
       </c>
       <c r="AB99" s="1">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="AC99" s="1">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="AD99" s="1">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AE99" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF99" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AG99" s="1">
         <v>0</v>
       </c>
       <c r="AH99" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI99" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AJ99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL99" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AM99" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="AN99" s="1">
         <v>0.15</v>
-      </c>
-      <c r="AK99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN99" s="1">
-        <v>0</v>
       </c>
       <c r="AO99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>112</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="A100" s="2">
+        <v>119</v>
+      </c>
+      <c r="B100" s="2">
         <v>0.02</v>
       </c>
-      <c r="E100" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M100" s="1">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="O100" s="1">
-        <v>0</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U100" s="1">
-        <v>0</v>
-      </c>
-      <c r="V100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W100" s="1">
-        <v>0</v>
-      </c>
-      <c r="X100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="Z100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="AC100" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AE100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="AJ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL100" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="AM100" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="AN100" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AO100" s="1">
-        <v>0</v>
-      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2"/>
+      <c r="AG100" s="2"/>
+      <c r="AH100" s="2"/>
+      <c r="AI100" s="2"/>
+      <c r="AJ100" s="2"/>
+      <c r="AK100" s="2"/>
+      <c r="AL100" s="2"/>
+      <c r="AM100" s="2"/>
+      <c r="AN100" s="2"/>
+      <c r="AO100" s="2"/>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>128</v>
       </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="B101" s="2">
         <v>0.38</v>
       </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1">
-        <v>0</v>
-      </c>
-      <c r="K101" s="1">
-        <v>0</v>
-      </c>
-      <c r="L101" s="1">
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
         <v>0.02</v>
       </c>
-      <c r="M101" s="1">
+      <c r="E101" s="2">
         <v>0.01</v>
       </c>
-      <c r="N101" s="1">
-        <v>0</v>
-      </c>
-      <c r="O101" s="1">
-        <v>0</v>
-      </c>
-      <c r="P101" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="1">
-        <v>0</v>
-      </c>
-      <c r="R101" s="1">
-        <v>0</v>
-      </c>
-      <c r="S101" s="1">
-        <v>0</v>
-      </c>
-      <c r="T101" s="1">
-        <v>0</v>
-      </c>
-      <c r="U101" s="1">
-        <v>0</v>
-      </c>
-      <c r="V101" s="1">
-        <v>0</v>
-      </c>
-      <c r="W101" s="1">
-        <v>0</v>
-      </c>
-      <c r="X101" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN101" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO101" s="1">
-        <v>0</v>
-      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2"/>
+      <c r="AG101" s="2"/>
+      <c r="AH101" s="2"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
+      <c r="AK101" s="2"/>
+      <c r="AL101" s="2"/>
+      <c r="AM101" s="2"/>
+      <c r="AN101" s="2"/>
+      <c r="AO101" s="2"/>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>130</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O102" s="2">
+        <v>0</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="2">
+        <v>0</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="U102" s="2">
+        <v>0</v>
+      </c>
+      <c r="V102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W102" s="2">
+        <v>0</v>
+      </c>
+      <c r="X102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AE102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="AI102" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN102" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AO102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>131</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2">
+        <v>0</v>
+      </c>
+      <c r="S103" s="2">
+        <v>0</v>
+      </c>
+      <c r="T103" s="2">
+        <v>0</v>
+      </c>
+      <c r="U103" s="2">
+        <v>0</v>
+      </c>
+      <c r="V103" s="2">
+        <v>0</v>
+      </c>
+      <c r="W103" s="2">
+        <v>0</v>
+      </c>
+      <c r="X103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AK103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO103" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>133</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0</v>
+      </c>
+      <c r="R104" s="2">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="U104" s="2">
+        <v>0</v>
+      </c>
+      <c r="V104" s="2">
+        <v>0</v>
+      </c>
+      <c r="W104" s="2">
+        <v>0</v>
+      </c>
+      <c r="X104" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Y104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>102</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>0</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="T105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U105" s="2">
+        <v>0</v>
+      </c>
+      <c r="V105" s="2">
+        <v>0</v>
+      </c>
+      <c r="W105" s="2">
+        <v>0</v>
+      </c>
+      <c r="X105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AA105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AD105" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AE105" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AF105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AH105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK105" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="AL105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>61</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2"/>
+      <c r="AL106" s="2"/>
+      <c r="AM106" s="2"/>
+      <c r="AN106" s="2"/>
+      <c r="AO106" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
